--- a/data_table/BattleItem.xlsx
+++ b/data_table/BattleItem.xlsx
@@ -35,7 +35,7 @@
     <author>Zxy</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,11 +53,38 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+1：道具
+2：技能书
+5：货币</t>
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="1">
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>94067:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：蓝
+1：紫
+2：橙
+3：红</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -82,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="1">
+    <comment ref="K3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -128,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1">
+    <comment ref="L3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -163,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="87">
   <si>
     <t>#</t>
   </si>
@@ -177,9 +204,15 @@
     <t>describe</t>
   </si>
   <si>
+    <t>iconResId</t>
+  </si>
+  <si>
     <t>itemType</t>
   </si>
   <si>
+    <t>itemQuality</t>
+  </si>
+  <si>
     <t>addType</t>
   </si>
   <si>
@@ -213,9 +246,15 @@
     <t>介绍</t>
   </si>
   <si>
+    <t>图片资源id</t>
+  </si>
+  <si>
     <t>道具类型</t>
   </si>
   <si>
+    <t>道具品质</t>
+  </si>
+  <si>
     <t>叠加类型</t>
   </si>
   <si>
@@ -241,6 +280,177 @@
   </si>
   <si>
     <t>0,10000,0|0,5000,0</t>
+  </si>
+  <si>
+    <t>技能书-影袭风暴</t>
+  </si>
+  <si>
+    <t>学习技能：影袭风暴</t>
+  </si>
+  <si>
+    <t>技能书-血蚀阵痕</t>
+  </si>
+  <si>
+    <t>学习技能：血蚀阵痕</t>
+  </si>
+  <si>
+    <t>技能书：蓝：1</t>
+  </si>
+  <si>
+    <t>学习技能：蓝：1</t>
+  </si>
+  <si>
+    <t>技能书：蓝：2</t>
+  </si>
+  <si>
+    <t>学习技能：蓝：2</t>
+  </si>
+  <si>
+    <t>技能书：蓝：3</t>
+  </si>
+  <si>
+    <t>学习技能：蓝：3</t>
+  </si>
+  <si>
+    <t>技能书：蓝：4</t>
+  </si>
+  <si>
+    <t>学习技能：蓝：4</t>
+  </si>
+  <si>
+    <t>技能书：蓝：5</t>
+  </si>
+  <si>
+    <t>学习技能：蓝：5</t>
+  </si>
+  <si>
+    <t>技能书：蓝：6</t>
+  </si>
+  <si>
+    <t>学习技能：蓝：6</t>
+  </si>
+  <si>
+    <t>技能书：蓝：7</t>
+  </si>
+  <si>
+    <t>学习技能：蓝：7</t>
+  </si>
+  <si>
+    <t>技能书：紫：1</t>
+  </si>
+  <si>
+    <t>学习技能：紫：1</t>
+  </si>
+  <si>
+    <t>技能书：紫：2</t>
+  </si>
+  <si>
+    <t>学习技能：紫：2</t>
+  </si>
+  <si>
+    <t>技能书：紫：3</t>
+  </si>
+  <si>
+    <t>学习技能：紫：3</t>
+  </si>
+  <si>
+    <t>技能书：紫：4</t>
+  </si>
+  <si>
+    <t>学习技能：紫：4</t>
+  </si>
+  <si>
+    <t>技能书：紫：5</t>
+  </si>
+  <si>
+    <t>学习技能：紫：5</t>
+  </si>
+  <si>
+    <t>技能书：紫：6</t>
+  </si>
+  <si>
+    <t>学习技能：紫：6</t>
+  </si>
+  <si>
+    <t>技能书：紫：7</t>
+  </si>
+  <si>
+    <t>学习技能：紫：7</t>
+  </si>
+  <si>
+    <t>技能书：橙：1</t>
+  </si>
+  <si>
+    <t>学习技能：橙：1</t>
+  </si>
+  <si>
+    <t>技能书：橙：2</t>
+  </si>
+  <si>
+    <t>学习技能：橙：2</t>
+  </si>
+  <si>
+    <t>技能书：橙：3</t>
+  </si>
+  <si>
+    <t>学习技能：橙：3</t>
+  </si>
+  <si>
+    <t>技能书：橙：4</t>
+  </si>
+  <si>
+    <t>学习技能：橙：4</t>
+  </si>
+  <si>
+    <t>技能书：橙：5</t>
+  </si>
+  <si>
+    <t>学习技能：橙：5</t>
+  </si>
+  <si>
+    <t>技能书：橙：6</t>
+  </si>
+  <si>
+    <t>学习技能：橙：6</t>
+  </si>
+  <si>
+    <t>技能书：红：1</t>
+  </si>
+  <si>
+    <t>学习技能：红：1</t>
+  </si>
+  <si>
+    <t>技能书：红：2</t>
+  </si>
+  <si>
+    <t>学习技能：红：2</t>
+  </si>
+  <si>
+    <t>技能书：红：3</t>
+  </si>
+  <si>
+    <t>学习技能：红：3</t>
+  </si>
+  <si>
+    <t>技能书：红：4</t>
+  </si>
+  <si>
+    <t>学习技能：红：4</t>
+  </si>
+  <si>
+    <t>技能书：红：5</t>
+  </si>
+  <si>
+    <t>学习技能：红：5</t>
+  </si>
+  <si>
+    <t>技能书：红：6</t>
+  </si>
+  <si>
+    <t>学习技能：红：6</t>
+  </si>
+  <si>
+    <t>金币</t>
   </si>
 </sst>
 </file>
@@ -867,7 +1077,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,6 +1095,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1237,27 +1450,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J7" sqref="J7"/>
+      <selection pane="topRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="75.125" customWidth="1"/>
-    <col min="5" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="18.75" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="33.25" customWidth="1"/>
+    <col min="4" max="5" width="29.25" customWidth="1"/>
+    <col min="6" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="18.75" customWidth="1"/>
+    <col min="10" max="10" width="20.625" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="12" max="12" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1288,72 +1501,90 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:10">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:12">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1361,95 +1592,906 @@
         <v>100001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="E4" s="2">
+        <v>15004001</v>
       </c>
       <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>2005001</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4">
+      <c r="K4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:10">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:12">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="I6"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="3:4">
+      <c r="E6" s="5"/>
+      <c r="K6"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="3:5">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" customFormat="1" spans="3:4">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" customFormat="1" spans="3:5">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" customFormat="1" spans="3:4">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" customFormat="1" spans="3:5">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" customFormat="1" spans="3:4">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" customFormat="1" spans="3:4">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" customFormat="1" spans="3:4">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:10">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>200001</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>2001023</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:10">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>200002</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>2001024</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="3:5">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-    </row>
-    <row r="13" customFormat="1" spans="3:4">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" customFormat="1" spans="3:4">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="17" spans="3:4">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="20" customFormat="1" spans="4:4">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:9">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>201000</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:9">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>201001</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:9">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>201002</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>201003</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>201004</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>201005</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>201006</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="4:5">
       <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" customFormat="1" spans="1:9">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>202000</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>202001</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>202002</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>202003</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>202004</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>202005</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>202006</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>203000</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>203001</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>203002</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>203003</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>203004</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>203005</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="2">
+        <v>15004002</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>204000</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>204001</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>204002</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>204003</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>204004</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>204005</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="2">
+        <v>15004001</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>500001</v>
+      </c>
+      <c r="C50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="2">
+        <v>15002001</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_table/BattleItem.xlsx
+++ b/data_table/BattleItem.xlsx
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
   <si>
     <t>#</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+  </si>
+  <si>
+    <t>List&lt;List&lt;int&gt;&gt;</t>
   </si>
   <si>
     <t>转表符</t>
@@ -616,12 +622,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1077,7 +1083,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1095,9 +1101,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1455,7 +1458,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G6" sqref="G6"/>
+      <selection pane="topRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1540,48 +1543,48 @@
         <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" ht="93" customHeight="1" spans="1:12">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1592,10 +1595,10 @@
         <v>100001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2">
         <v>15004001</v>
@@ -1612,11 +1615,11 @@
       <c r="J4">
         <v>2005001</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>28</v>
+      <c r="K4" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="3:5">
@@ -1654,10 +1657,10 @@
         <v>200001</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2">
         <v>15004001</v>
@@ -1683,10 +1686,10 @@
         <v>200002</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2">
         <v>15004002</v>
@@ -1717,10 +1720,10 @@
         <v>201000</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2">
         <v>15004001</v>
@@ -1746,10 +1749,10 @@
         <v>201001</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2">
         <v>15004001</v>
@@ -1775,10 +1778,10 @@
         <v>201002</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2">
         <v>15004001</v>
@@ -1804,10 +1807,10 @@
         <v>201003</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2">
         <v>15004001</v>
@@ -1833,10 +1836,10 @@
         <v>201004</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2">
         <v>15004001</v>
@@ -1862,10 +1865,10 @@
         <v>201005</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2">
         <v>15004001</v>
@@ -1891,10 +1894,10 @@
         <v>201006</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E19" s="2">
         <v>15004001</v>
@@ -1924,10 +1927,10 @@
         <v>202000</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2">
         <v>15004002</v>
@@ -1953,10 +1956,10 @@
         <v>202001</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E22" s="2">
         <v>15004002</v>
@@ -1982,10 +1985,10 @@
         <v>202002</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2">
         <v>15004002</v>
@@ -2011,10 +2014,10 @@
         <v>202003</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E24" s="2">
         <v>15004002</v>
@@ -2040,10 +2043,10 @@
         <v>202004</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E25" s="2">
         <v>15004002</v>
@@ -2069,10 +2072,10 @@
         <v>202005</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E26" s="2">
         <v>15004002</v>
@@ -2098,10 +2101,10 @@
         <v>202006</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E27" s="2">
         <v>15004002</v>
@@ -2127,10 +2130,10 @@
         <v>203000</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E29" s="2">
         <v>15004002</v>
@@ -2156,10 +2159,10 @@
         <v>203001</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E30" s="2">
         <v>15004002</v>
@@ -2185,10 +2188,10 @@
         <v>203002</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E31" s="2">
         <v>15004002</v>
@@ -2214,10 +2217,10 @@
         <v>203003</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E32" s="2">
         <v>15004002</v>
@@ -2243,10 +2246,10 @@
         <v>203004</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E33" s="2">
         <v>15004002</v>
@@ -2272,10 +2275,10 @@
         <v>203005</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2">
         <v>15004002</v>
@@ -2301,10 +2304,10 @@
         <v>204000</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2">
         <v>15004001</v>
@@ -2330,10 +2333,10 @@
         <v>204001</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2">
         <v>15004001</v>
@@ -2359,10 +2362,10 @@
         <v>204002</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2">
         <v>15004001</v>
@@ -2388,10 +2391,10 @@
         <v>204003</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2">
         <v>15004001</v>
@@ -2417,10 +2420,10 @@
         <v>204004</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2">
         <v>15004001</v>
@@ -2446,10 +2449,10 @@
         <v>204005</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E41" s="2">
         <v>15004001</v>
@@ -2475,10 +2478,10 @@
         <v>500001</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D50" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2">
         <v>15002001</v>
